--- a/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV4.xlsx
+++ b/Projects/CCBOTTLERSUS_SAND/Data/KPITemplateV4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,25 +18,41 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$J$64</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$Q$70</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$I$10</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$70</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$I$9</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="a" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$O$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$Q$70</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$Q$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$P$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$P$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$P$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$P$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$P$70</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="a" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$J$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="a" vbProcedure="false">SOS!$A$1:$I$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$I$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Availability!$A$1:$J$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="a" vbProcedure="false">SOS!$A$1:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">SOS!$A$1:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">SOS!$A$1:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">SOS!$A$1:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">SOS!$A$1:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">SOS!$A$1:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">SOS!$A$1:$I$9</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="a" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Survey!$A$1:$E$24</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Survey!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="280">
   <si>
     <t>Region</t>
   </si>
@@ -95,9 +111,6 @@
     <t>weight</t>
   </si>
   <si>
-    <t>Availability OR</t>
-  </si>
-  <si>
     <t>UNITED</t>
   </si>
   <si>
@@ -350,7 +363,7 @@
     <t>Drug1</t>
   </si>
   <si>
-    <t>Coolers at Reg Checkout, Coolers Outside of Checkout</t>
+    <t>Coolers At Reg Checkout, Coolers Outside Checkout</t>
   </si>
   <si>
     <t>1:Is there a Coke SSD FEM / FLM in this outlet?</t>
@@ -362,9 +375,6 @@
     <t>10:Is Powerade 4 pk. 20 oz or 6pk 12oz available?</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>Drug11</t>
   </si>
   <si>
@@ -401,6 +411,9 @@
     <t>1a:Do we have a Coke cooler in checkout area of the outlet?</t>
   </si>
   <si>
+    <t>Availability_scene</t>
+  </si>
+  <si>
     <t>Drug1b</t>
   </si>
   <si>
@@ -452,7 +465,7 @@
     <t>Drug7</t>
   </si>
   <si>
-    <t>Display, Bev Aisle</t>
+    <t>Display, Beverage Aisle</t>
   </si>
   <si>
     <t>7:Are the Gold Peak multipack or Gold Peak 64 oz or Honest Tea 59 oz available in the warm section?</t>
@@ -638,30 +651,33 @@
     <t>FANTA</t>
   </si>
   <si>
+    <t>Smartwater</t>
+  </si>
+  <si>
+    <t>Dasani</t>
+  </si>
+  <si>
+    <t>HONEST TEA</t>
+  </si>
+  <si>
+    <t>DASANI SPARKLING</t>
+  </si>
+  <si>
+    <t>POWERADE</t>
+  </si>
+  <si>
+    <t>DUNKIN DONUTS</t>
+  </si>
+  <si>
+    <t>MC CAFE</t>
+  </si>
+  <si>
+    <t>MONSTER ENERGY</t>
+  </si>
+  <si>
     <t>SMARTWATER</t>
   </si>
   <si>
-    <t>Dasani</t>
-  </si>
-  <si>
-    <t>HONEST TEA</t>
-  </si>
-  <si>
-    <t>DASANI SPARKLING</t>
-  </si>
-  <si>
-    <t>POWERADE</t>
-  </si>
-  <si>
-    <t>DUNKIN DONUTS</t>
-  </si>
-  <si>
-    <t>MC CAFE</t>
-  </si>
-  <si>
-    <t>MONSTER ENERGY</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -731,13 +747,10 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Smartwater</t>
-  </si>
-  <si>
     <t>Transaction Packages</t>
   </si>
   <si>
-    <t>Fanta, Sprite, Barqs, Mello Yello</t>
+    <t>FANTA, Sprite, BARQS, Mello Yello</t>
   </si>
   <si>
     <t>SSD/still</t>
@@ -746,10 +759,7 @@
     <t>MONSTER ENERGY, FULL THROTTLE, NOS ENERGY</t>
   </si>
   <si>
-    <t>Dunkin Donuts, Monster Java, McCafe</t>
-  </si>
-  <si>
-    <t>Gold Peak Tea</t>
+    <t>DUNKIN DONUTS, Monster Java, MC CAFE</t>
   </si>
   <si>
     <t>question_text</t>
@@ -905,7 +915,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -957,12 +967,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -990,14 +994,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF9C0006"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF9C0006"/>
       </patternFill>
     </fill>
     <fill>
@@ -1064,17 +1068,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1093,19 +1093,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,15 +1109,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1129,7 +1117,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1165,7 +1153,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1203,17 +1191,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1319,2661 +1297,2579 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="1:70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-      <selection pane="bottomRight" activeCell="E51" activeCellId="0" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="O41" activeCellId="0" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="11" min="7" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="15" min="13" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1023" min="17" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="0"/>
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0"/>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="0"/>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="0"/>
+      <c r="O2" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="P2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="0"/>
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="G3" s="0"/>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>21</v>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="0"/>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="0"/>
+      <c r="P3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" s="0"/>
-      <c r="H4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>21</v>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
-      <c r="L4" s="8" t="s">
-        <v>22</v>
+      <c r="L4" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="0"/>
+      <c r="P4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="8" t="n">
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
-      <c r="L5" s="8" t="s">
-        <v>32</v>
+      <c r="L5" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="0"/>
+      <c r="P5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" s="0"/>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>21</v>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
-      <c r="L6" s="8" t="s">
-        <v>36</v>
+      <c r="L6" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="0"/>
-      <c r="H7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="8" t="n">
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
-      <c r="L7" s="8" t="s">
-        <v>36</v>
+      <c r="L7" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="6" t="n">
         <v>10</v>
       </c>
       <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="0"/>
-      <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="8" t="n">
-        <v>5</v>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="L8" s="8" t="s">
-        <v>36</v>
+      <c r="L8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="6" t="n">
         <v>10</v>
       </c>
       <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>41</v>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
-      <c r="F9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>21</v>
+      <c r="G9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
-      <c r="L9" s="8" t="s">
-        <v>36</v>
+      <c r="L9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="6" t="n">
         <v>10</v>
       </c>
       <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
-      <c r="F10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>21</v>
+      <c r="G10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
-      <c r="L10" s="8" t="s">
-        <v>36</v>
+      <c r="L10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="6" t="n">
         <v>10</v>
       </c>
       <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
+      <c r="C11" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="L11" s="8" t="s">
-        <v>32</v>
+      <c r="L11" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="0"/>
+      <c r="P11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>47</v>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="G12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
-      <c r="L12" s="8" t="s">
-        <v>32</v>
+      <c r="L12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="0"/>
+      <c r="P12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="K13" s="0"/>
-      <c r="L13" s="8" t="s">
-        <v>36</v>
+      <c r="L13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="K14" s="0"/>
+      <c r="L14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="0"/>
+      <c r="O14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="0"/>
-      <c r="H14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="0"/>
-      <c r="L14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="0"/>
-      <c r="O14" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="0"/>
+      <c r="F15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="G15" s="0"/>
-      <c r="H15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>21</v>
+      <c r="H15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="0"/>
+      <c r="O15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="0"/>
-      <c r="O15" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="G16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
-      <c r="L16" s="8" t="s">
-        <v>32</v>
+      <c r="L16" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="0"/>
+      <c r="P16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="G17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
-      <c r="L17" s="8" t="s">
-        <v>32</v>
+      <c r="L17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="0"/>
+      <c r="P17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>61</v>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
-      <c r="F18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="G18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
-      <c r="L18" s="8" t="s">
-        <v>32</v>
+      <c r="L18" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
-      <c r="O18" s="8" t="n">
+      <c r="O18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="0"/>
+      <c r="P18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>63</v>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
-      <c r="L19" s="8" t="s">
-        <v>32</v>
+      <c r="L19" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
-      <c r="O19" s="8" t="n">
+      <c r="O19" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="0"/>
+      <c r="P19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>65</v>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
-      <c r="F20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="G20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
-      <c r="L20" s="8" t="s">
-        <v>32</v>
+      <c r="L20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
-      <c r="O20" s="8" t="n">
+      <c r="O20" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="0"/>
+      <c r="P20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>67</v>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="G21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
-      <c r="L21" s="8" t="s">
-        <v>32</v>
+      <c r="L21" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
-      <c r="O21" s="8" t="n">
+      <c r="O21" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="0"/>
+      <c r="P21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>69</v>
+      <c r="C22" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="G22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
-      <c r="L22" s="8" t="s">
-        <v>32</v>
+      <c r="L22" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
-      <c r="O22" s="8" t="n">
+      <c r="O22" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="0"/>
+      <c r="P22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>71</v>
+      <c r="C23" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
-      <c r="F23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="G23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="L23" s="8" t="s">
-        <v>32</v>
+      <c r="L23" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
-      <c r="O23" s="8" t="n">
+      <c r="O23" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="0"/>
+      <c r="P23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="0"/>
-      <c r="E24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="G24" s="0"/>
-      <c r="H24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>53</v>
+      <c r="H24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="K24" s="0"/>
-      <c r="L24" s="8" t="s">
-        <v>36</v>
+      <c r="L24" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
-      <c r="O24" s="8" t="n">
+      <c r="O24" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="0"/>
-      <c r="E25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="G25" s="0"/>
-      <c r="H25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>53</v>
+      <c r="H25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="K25" s="0"/>
-      <c r="L25" s="8" t="s">
-        <v>36</v>
+      <c r="L25" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
-      <c r="O25" s="8" t="n">
+      <c r="O25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="0"/>
-      <c r="F26" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="G26" s="0"/>
-      <c r="H26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>21</v>
+      <c r="H26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
-      <c r="L26" s="8" t="s">
-        <v>56</v>
+      <c r="L26" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
-      <c r="O26" s="8" t="n">
+      <c r="O26" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="0"/>
+      <c r="P26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="88" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="0"/>
+      <c r="H27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="0"/>
+      <c r="K27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="0"/>
-      <c r="F27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="0"/>
-      <c r="H27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="L27" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
-      <c r="O27" s="8" t="n">
+      <c r="O27" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="10" t="s">
+      <c r="P27" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="0"/>
+      <c r="F28" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="0"/>
-      <c r="F28" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="G28" s="0"/>
-      <c r="H28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>21</v>
+      <c r="H28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
-      <c r="L28" s="8" t="s">
-        <v>56</v>
+      <c r="L28" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
-      <c r="O28" s="8" t="n">
+      <c r="O28" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="0"/>
+      <c r="P28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="0"/>
-      <c r="F29" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="G29" s="0"/>
-      <c r="H29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>83</v>
+      <c r="H29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="K29" s="0"/>
-      <c r="L29" s="8" t="s">
-        <v>36</v>
+      <c r="L29" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
-      <c r="O29" s="8" t="n">
+      <c r="O29" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+    <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="0"/>
+      <c r="F30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="0"/>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="0"/>
+      <c r="H30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="0"/>
+      <c r="K30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="0"/>
-      <c r="H30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="0"/>
-      <c r="K30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>56</v>
+      <c r="L30" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
-      <c r="O30" s="8" t="n">
+      <c r="O30" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="0"/>
+      <c r="P30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="0"/>
-      <c r="F31" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="G31" s="0"/>
-      <c r="H31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>21</v>
+      <c r="H31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
-      <c r="L31" s="8" t="s">
-        <v>56</v>
+      <c r="L31" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
-      <c r="O31" s="8" t="n">
+      <c r="O31" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="0"/>
+      <c r="P31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="0"/>
+      <c r="F32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="0"/>
-      <c r="F32" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="G32" s="0"/>
-      <c r="H32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>21</v>
+      <c r="H32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
-      <c r="L32" s="8" t="s">
-        <v>22</v>
+      <c r="L32" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
-      <c r="O32" s="8" t="n">
+      <c r="O32" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="0"/>
+      <c r="P32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+    <row r="33" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="G33" s="0"/>
-      <c r="H33" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>21</v>
+      <c r="H33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="N33" s="0"/>
-      <c r="O33" s="8" t="n">
+      <c r="O33" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="0"/>
+      <c r="P33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="8" t="s">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="0"/>
+      <c r="F34" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="0"/>
-      <c r="F34" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G34" s="0"/>
-      <c r="H34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>21</v>
+      <c r="H34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="N34" s="0"/>
-      <c r="O34" s="8" t="n">
+      <c r="O34" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="0"/>
+      <c r="P34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>102</v>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
-      <c r="F35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>21</v>
+      <c r="G35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
-      <c r="L35" s="8" t="s">
-        <v>36</v>
+      <c r="L35" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
-      <c r="O35" s="8" t="n">
+      <c r="O35" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P35" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q35" s="0"/>
+      <c r="P35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>105</v>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
-      <c r="F36" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>21</v>
+      <c r="F36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
-      <c r="L36" s="8" t="s">
-        <v>36</v>
+      <c r="L36" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
-      <c r="O36" s="8" t="n">
+      <c r="O36" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P36" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>107</v>
+      <c r="P36" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>108</v>
+    <row r="37" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" s="8" t="n">
+      <c r="H37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
-      <c r="L37" s="8" t="s">
-        <v>32</v>
+      <c r="L37" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
-      <c r="O37" s="8" t="n">
+      <c r="O37" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="0"/>
+      <c r="P37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>109</v>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
-      <c r="F38" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="8" t="n">
+      <c r="F38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
-      <c r="L38" s="8" t="s">
-        <v>32</v>
+      <c r="L38" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
-      <c r="O38" s="8" t="n">
+      <c r="O38" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="0"/>
+      <c r="P38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>111</v>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
-      <c r="F39" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="8" t="n">
+      <c r="F39" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
-      <c r="L39" s="8" t="s">
-        <v>32</v>
+      <c r="L39" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
-      <c r="O39" s="8" t="n">
+      <c r="O39" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="0"/>
+      <c r="P39" s="0"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>113</v>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
-      <c r="F40" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" s="8" t="n">
+      <c r="F40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
-      <c r="L40" s="8" t="s">
-        <v>32</v>
+      <c r="L40" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
-      <c r="O40" s="8" t="n">
+      <c r="O40" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="0"/>
+      <c r="P40" s="0"/>
     </row>
-    <row r="41" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="8" t="s">
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="0"/>
+      <c r="F41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="K41" s="0"/>
+      <c r="L41" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="0"/>
-      <c r="F41" s="8" t="s">
+      <c r="M41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="0"/>
+      <c r="O41" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="D42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="0"/>
+      <c r="F42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="0"/>
+      <c r="H42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="0"/>
+      <c r="L42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="0"/>
+      <c r="O42" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="0"/>
+      <c r="F43" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="0"/>
+      <c r="H43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="0"/>
+      <c r="L43" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="0"/>
-      <c r="L41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" s="0"/>
-      <c r="O41" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="0"/>
-      <c r="F42" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="0"/>
-      <c r="H42" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="0"/>
-      <c r="L42" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" s="0"/>
-      <c r="O42" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="P42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="0"/>
-      <c r="F43" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G43" s="0"/>
-      <c r="H43" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I43" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K43" s="0"/>
-      <c r="L43" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
-      <c r="O43" s="8" t="n">
+      <c r="O43" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="8" t="s">
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="G44" s="0"/>
-      <c r="H44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>21</v>
+      <c r="H44" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
-      <c r="L44" s="8" t="s">
-        <v>56</v>
+      <c r="L44" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
-      <c r="O44" s="8" t="n">
+      <c r="O44" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="P44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>123</v>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
-      <c r="F45" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="8" t="n">
+      <c r="G45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
-      <c r="L45" s="8" t="s">
-        <v>32</v>
+      <c r="L45" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
-      <c r="O45" s="8" t="n">
+      <c r="O45" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="8" t="s">
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="G46" s="0"/>
-      <c r="H46" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>21</v>
+      <c r="H46" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
-      <c r="L46" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>23</v>
+      <c r="L46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="N46" s="0"/>
-      <c r="O46" s="8" t="n">
+      <c r="O46" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="8" t="s">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="0"/>
+      <c r="E47" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="0"/>
-      <c r="E47" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="G47" s="0"/>
-      <c r="H47" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>21</v>
+      <c r="H47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J47" s="0"/>
-      <c r="K47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>56</v>
+      <c r="K47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
-      <c r="O47" s="8" t="n">
+      <c r="O47" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="8" t="s">
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="0"/>
+      <c r="E48" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="0"/>
-      <c r="E48" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="G48" s="0"/>
+      <c r="H48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="0"/>
+      <c r="K48" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="0"/>
+      <c r="O48" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="0"/>
-      <c r="H48" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="0"/>
-      <c r="K48" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" s="0"/>
-      <c r="O48" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="0"/>
+      <c r="E49" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="0"/>
-      <c r="E49" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="G49" s="0"/>
-      <c r="H49" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>129</v>
+      <c r="H49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="K49" s="0"/>
-      <c r="L49" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="8" t="n">
+      <c r="L49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="0"/>
+      <c r="E50" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="0"/>
-      <c r="E50" s="14" t="s">
+      <c r="F50" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="G50" s="0"/>
-      <c r="H50" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>21</v>
+      <c r="H50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="J50" s="0"/>
       <c r="K50" s="0"/>
-      <c r="L50" s="8" t="s">
-        <v>36</v>
+      <c r="L50" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
-      <c r="O50" s="8" t="n">
+      <c r="O50" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P50" s="13" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="51" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>136</v>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
-      <c r="F51" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>21</v>
+      <c r="G51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
-      <c r="L51" s="8" t="s">
-        <v>36</v>
+      <c r="L51" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
-      <c r="O51" s="8" t="n">
+      <c r="O51" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>138</v>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
-      <c r="F52" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>21</v>
+      <c r="G52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J52" s="0"/>
       <c r="K52" s="0"/>
-      <c r="L52" s="8" t="s">
-        <v>36</v>
+      <c r="L52" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
-      <c r="O52" s="8" t="n">
+      <c r="O52" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="8" t="s">
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="0"/>
+      <c r="F53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="0"/>
-      <c r="F53" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G53" s="0"/>
-      <c r="H53" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>21</v>
+      <c r="H53" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J53" s="0"/>
       <c r="K53" s="0"/>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M53" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="N53" s="0"/>
-      <c r="O53" s="8" t="n">
+      <c r="O53" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="P53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>142</v>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
-      <c r="F54" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>21</v>
+      <c r="G54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
-      <c r="L54" s="8" t="s">
-        <v>36</v>
+      <c r="L54" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
-      <c r="O54" s="8" t="n">
+      <c r="O54" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>144</v>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
-      <c r="F55" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I55" s="8" t="s">
-        <v>21</v>
+      <c r="G55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="J55" s="0"/>
       <c r="K55" s="0"/>
-      <c r="L55" s="8" t="s">
-        <v>36</v>
+      <c r="L55" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
-      <c r="O55" s="8" t="n">
+      <c r="O55" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P55" s="13" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>146</v>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
-      <c r="F56" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I56" s="8" t="s">
-        <v>21</v>
+      <c r="G56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
-      <c r="L56" s="8" t="s">
-        <v>36</v>
+      <c r="L56" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
-      <c r="O56" s="8" t="n">
+      <c r="O56" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>148</v>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
-      <c r="F57" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="I57" s="8" t="n">
+      <c r="G57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J57" s="0"/>
       <c r="K57" s="0"/>
-      <c r="L57" s="8" t="s">
-        <v>32</v>
+      <c r="L57" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
-      <c r="O57" s="8" t="n">
+      <c r="O57" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>150</v>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
-      <c r="F58" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I58" s="8" t="n">
+      <c r="G58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="0"/>
       <c r="K58" s="0"/>
-      <c r="L58" s="8" t="s">
-        <v>32</v>
+      <c r="L58" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M58" s="0"/>
       <c r="N58" s="0"/>
-      <c r="O58" s="8" t="n">
+      <c r="O58" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>152</v>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0"/>
-      <c r="F59" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I59" s="8" t="n">
+      <c r="G59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
-      <c r="L59" s="8" t="s">
-        <v>32</v>
+      <c r="L59" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M59" s="0"/>
       <c r="N59" s="0"/>
-      <c r="O59" s="8" t="n">
+      <c r="O59" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>154</v>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
-      <c r="F60" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I60" s="8" t="n">
+      <c r="G60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I60" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J60" s="0"/>
       <c r="K60" s="0"/>
-      <c r="L60" s="8" t="s">
-        <v>32</v>
+      <c r="L60" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M60" s="0"/>
       <c r="N60" s="0"/>
-      <c r="O60" s="8" t="n">
+      <c r="O60" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="P60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="8" t="s">
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="0"/>
+      <c r="F61" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G61" s="0"/>
+      <c r="H61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="0"/>
-      <c r="F61" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" s="0"/>
-      <c r="H61" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="K61" s="0"/>
-      <c r="L61" s="8" t="s">
-        <v>36</v>
+      <c r="L61" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M61" s="0"/>
       <c r="N61" s="0"/>
-      <c r="O61" s="8" t="n">
+      <c r="O61" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="P61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="8" t="s">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="0"/>
+      <c r="E62" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D62" s="0"/>
-      <c r="E62" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="8" t="s">
+      <c r="G62" s="0"/>
+      <c r="H62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="0"/>
+      <c r="K62" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G62" s="0"/>
-      <c r="H62" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="0"/>
-      <c r="K62" s="8" t="s">
+      <c r="L62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" s="0"/>
+      <c r="O62" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="L62" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N62" s="0"/>
-      <c r="O62" s="8" t="n">
+      <c r="D63" s="0"/>
+      <c r="E63" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="0"/>
+      <c r="H63" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="8"/>
+      <c r="J63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O63" s="6" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="63" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="0"/>
-      <c r="E63" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="8" t="s">
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G63" s="0"/>
-      <c r="H63" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N63" s="8" t="s">
+      <c r="D64" s="0"/>
+      <c r="E64" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="0"/>
+      <c r="H64" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="0"/>
+      <c r="E65" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" s="0"/>
+      <c r="H65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="0"/>
+      <c r="E66" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="0"/>
+      <c r="H66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="0"/>
+      <c r="F67" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O63" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" s="0"/>
-      <c r="E64" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G64" s="0"/>
-      <c r="H64" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O64" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="P64" s="8"/>
-    </row>
-    <row r="65" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="0"/>
-      <c r="E65" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G65" s="0"/>
-      <c r="H65" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="P65" s="8"/>
-    </row>
-    <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="0"/>
-      <c r="E66" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G66" s="0"/>
-      <c r="H66" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O66" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="P66" s="8"/>
-    </row>
-    <row r="67" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="0"/>
-      <c r="F67" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I67" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O67" s="8" t="n">
+      <c r="O67" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="P67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="A68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="F68" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O68" s="8" t="n">
+      <c r="H68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O68" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="P68" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="A69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O69" s="8" t="n">
+      <c r="H69" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O69" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="P69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="A70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O70" s="8" t="n">
+      <c r="H70" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O70" s="6" t="n">
         <v>10</v>
-      </c>
-      <c r="P70" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q70"/>
+  <autoFilter ref="A1:P70"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3993,62 +3889,64 @@
   <dimension ref="A1:AMC64"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1017" min="1" style="17" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="13" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1017" min="4" style="13" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>185</v>
+      <c r="A2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C2" s="0"/>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
-      <c r="H2" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="23" t="n">
+      <c r="H2" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="0"/>
@@ -5061,23 +4959,23 @@
       <c r="AMC2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>187</v>
+      <c r="A3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D3" s="0"/>
-      <c r="E3" s="23" t="n">
+      <c r="E3" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
-      <c r="I3" s="23" t="n">
+      <c r="I3" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="0"/>
@@ -6090,23 +5988,23 @@
       <c r="AMC3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>188</v>
+      <c r="A4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
-      <c r="I4" s="23" t="n">
+      <c r="I4" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="0"/>
@@ -7119,23 +7017,23 @@
       <c r="AMC4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>189</v>
+      <c r="A5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="D5" s="0"/>
-      <c r="E5" s="23" t="n">
+      <c r="E5" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
-      <c r="I5" s="23" t="n">
+      <c r="I5" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J5" s="0"/>
@@ -8148,23 +8046,23 @@
       <c r="AMC5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>190</v>
+      <c r="A6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D6" s="0"/>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
-      <c r="I6" s="23" t="n">
+      <c r="I6" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="0"/>
@@ -9177,23 +9075,23 @@
       <c r="AMC6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>192</v>
-      </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="23" t="n">
+      <c r="I7" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="0"/>
@@ -10206,23 +10104,23 @@
       <c r="AMC7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>193</v>
+      <c r="A8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D8" s="0"/>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
-      <c r="I8" s="23" t="n">
+      <c r="I8" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="0"/>
@@ -11234,24 +11132,22 @@
       <c r="AMB8" s="0"/>
       <c r="AMC8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>187</v>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
-      <c r="F9" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
-      <c r="I9" s="23" t="n">
+      <c r="I9" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="0"/>
@@ -12263,24 +12159,22 @@
       <c r="AMB9" s="0"/>
       <c r="AMC9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>188</v>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
-      <c r="F10" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F10" s="19"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
-      <c r="I10" s="23" t="n">
+      <c r="I10" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="0"/>
@@ -13292,24 +13186,22 @@
       <c r="AMB10" s="0"/>
       <c r="AMC10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>189</v>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F11" s="19"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
-      <c r="I11" s="23" t="n">
+      <c r="I11" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="0"/>
@@ -14321,24 +14213,22 @@
       <c r="AMB11" s="0"/>
       <c r="AMC11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>190</v>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
-      <c r="F12" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
-      <c r="I12" s="23" t="n">
+      <c r="I12" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="0"/>
@@ -15350,24 +15240,22 @@
       <c r="AMB12" s="0"/>
       <c r="AMC12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="23" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F13" s="19"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
-      <c r="I13" s="23" t="n">
+      <c r="I13" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="0"/>
@@ -16380,25 +16268,25 @@
       <c r="AMC13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>193</v>
+      <c r="A14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="23" t="n">
+      <c r="E14" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23" t="n">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="0"/>
@@ -17410,24 +17298,22 @@
       <c r="AMB14" s="0"/>
       <c r="AMC14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>187</v>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
-      <c r="F15" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F15" s="19"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
-      <c r="I15" s="23" t="n">
+      <c r="I15" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="0"/>
@@ -18439,24 +18325,22 @@
       <c r="AMB15" s="0"/>
       <c r="AMC15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>188</v>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F16" s="19"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
-      <c r="I16" s="23" t="n">
+      <c r="I16" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="0"/>
@@ -19468,24 +19352,22 @@
       <c r="AMB16" s="0"/>
       <c r="AMC16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>189</v>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="F17" s="19"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="23" t="n">
+      <c r="I17" s="19" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="0"/>
@@ -20497,945 +20379,939 @@
       <c r="AMB17" s="0"/>
       <c r="AMC17" s="0"/>
     </row>
-    <row r="18" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="25" t="s">
+    <row r="18" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I18" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="25" t="n">
+      <c r="I19" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>185</v>
+      <c r="A20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="C20" s="0"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25" t="s">
-        <v>186</v>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>185</v>
       </c>
       <c r="H20" s="0"/>
-      <c r="I20" s="25" t="n">
+      <c r="I20" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>194</v>
+      <c r="A21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="21" t="n">
         <v>18.5</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
-      <c r="I21" s="25" t="n">
+      <c r="I21" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>185</v>
+      <c r="A22" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="C22" s="0"/>
-      <c r="D22" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="25" t="n">
+      <c r="D22" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
-      <c r="I22" s="25" t="n">
+      <c r="I22" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>185</v>
+      <c r="A23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="C23" s="0"/>
-      <c r="D23" s="25" t="s">
-        <v>196</v>
+      <c r="D23" s="21" t="s">
+        <v>195</v>
       </c>
       <c r="E23" s="0"/>
-      <c r="F23" s="25"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="25" t="n">
+      <c r="I23" s="21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>185</v>
+      <c r="A24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C24" s="0"/>
-      <c r="D24" s="23" t="s">
-        <v>197</v>
+      <c r="D24" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
-      <c r="I24" s="23" t="n">
+      <c r="I24" s="19" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>187</v>
+      <c r="A25" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="23" t="n">
+      <c r="E25" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
-      <c r="I25" s="23" t="n">
+      <c r="I25" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>188</v>
+      <c r="A26" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="23" t="n">
+      <c r="E26" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
-      <c r="I26" s="23" t="n">
+      <c r="I26" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>189</v>
+      <c r="A27" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="23" t="n">
+      <c r="E27" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="I27" s="23" t="n">
+      <c r="I27" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>190</v>
+      <c r="A28" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="23" t="n">
+      <c r="E28" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
-      <c r="I28" s="23" t="n">
+      <c r="I28" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>192</v>
-      </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="23" t="n">
+      <c r="E29" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
-      <c r="I29" s="23" t="n">
+      <c r="I29" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>193</v>
+      <c r="A30" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="23" t="n">
+      <c r="E30" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="23" t="n">
+      <c r="I30" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>187</v>
+      <c r="A31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
-      <c r="I31" s="23" t="n">
+      <c r="I31" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>188</v>
+      <c r="A32" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
-      <c r="I32" s="23" t="n">
+      <c r="I32" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>189</v>
+      <c r="A33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
-      <c r="I33" s="23" t="n">
+      <c r="I33" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>190</v>
+      <c r="A34" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
-      <c r="I34" s="23" t="n">
+      <c r="I34" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
-      <c r="I35" s="23" t="n">
+      <c r="I35" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>194</v>
+      <c r="A36" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
-      <c r="F36" s="23" t="n">
+      <c r="F36" s="19" t="n">
         <v>2</v>
       </c>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
-      <c r="I36" s="23" t="n">
+      <c r="I36" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>194</v>
+      <c r="A37" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
-      <c r="F37" s="23" t="n">
+      <c r="F37" s="19" t="n">
         <v>6</v>
       </c>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
-      <c r="I37" s="23" t="n">
+      <c r="I37" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>194</v>
+      <c r="A38" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="D38" s="0"/>
-      <c r="E38" s="23" t="n">
+      <c r="E38" s="19" t="n">
         <v>64</v>
       </c>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
       <c r="H38" s="0"/>
-      <c r="I38" s="23" t="n">
+      <c r="I38" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>198</v>
+      <c r="A39" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="D39" s="0"/>
-      <c r="E39" s="23" t="n">
+      <c r="E39" s="19" t="n">
         <v>59</v>
       </c>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
       <c r="H39" s="0"/>
-      <c r="I39" s="23" t="n">
+      <c r="I39" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>199</v>
+      <c r="A40" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
-      <c r="I40" s="23" t="n">
+      <c r="I40" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>193</v>
+      <c r="A41" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D41" s="0"/>
-      <c r="E41" s="23" t="n">
+      <c r="E41" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F41" s="0"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="23" t="n">
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>193</v>
+      <c r="A42" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D42" s="0"/>
-      <c r="E42" s="23" t="n">
+      <c r="E42" s="19" t="n">
         <v>33.8</v>
       </c>
       <c r="F42" s="0"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="23" t="n">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>185</v>
+      <c r="A43" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C43" s="0"/>
-      <c r="D43" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="23" t="n">
+      <c r="D43" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="19" t="n">
         <v>4</v>
       </c>
       <c r="G43" s="0"/>
       <c r="H43" s="0"/>
-      <c r="I43" s="23" t="n">
+      <c r="I43" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>185</v>
+      <c r="A44" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C44" s="0"/>
-      <c r="D44" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="23" t="n">
+      <c r="D44" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="19" t="n">
         <v>6</v>
       </c>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
-      <c r="I44" s="23" t="n">
+      <c r="I44" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>201</v>
+      <c r="A45" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
       <c r="H45" s="0"/>
-      <c r="I45" s="23" t="n">
+      <c r="I45" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>202</v>
+      <c r="A46" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
       <c r="H46" s="0"/>
-      <c r="I46" s="23" t="n">
+      <c r="I46" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>203</v>
+      <c r="A47" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
       <c r="H47" s="0"/>
-      <c r="I47" s="23" t="n">
+      <c r="I47" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>187</v>
+      <c r="A48" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
       <c r="H48" s="0"/>
-      <c r="I48" s="23" t="n">
+      <c r="I48" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>188</v>
+      <c r="A49" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
-      <c r="I49" s="23" t="n">
+      <c r="I49" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>189</v>
+      <c r="A50" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
       <c r="G50" s="0"/>
       <c r="H50" s="0"/>
-      <c r="I50" s="23" t="n">
+      <c r="I50" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>190</v>
+      <c r="A51" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
       <c r="H51" s="0"/>
-      <c r="I51" s="23" t="n">
+      <c r="I51" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
       <c r="F52" s="0"/>
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
-      <c r="I52" s="23" t="n">
+      <c r="I52" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>203</v>
+      <c r="A53" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
-      <c r="F53" s="23" t="n">
+      <c r="F53" s="19" t="n">
         <v>4</v>
       </c>
       <c r="G53" s="0"/>
       <c r="H53" s="0"/>
-      <c r="I53" s="23" t="n">
+      <c r="I53" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>203</v>
+      <c r="A54" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
-      <c r="F54" s="23" t="n">
+      <c r="F54" s="19" t="n">
         <v>10</v>
       </c>
       <c r="G54" s="0"/>
       <c r="H54" s="0"/>
-      <c r="I54" s="23" t="n">
+      <c r="I54" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>203</v>
+      <c r="A55" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="19" t="n">
         <v>12</v>
       </c>
       <c r="G55" s="0"/>
       <c r="H55" s="0"/>
-      <c r="I55" s="23" t="n">
+      <c r="I55" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>203</v>
+      <c r="A56" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
-      <c r="F56" s="23" t="n">
+      <c r="F56" s="19" t="n">
         <v>24</v>
       </c>
       <c r="G56" s="0"/>
       <c r="H56" s="0"/>
-      <c r="I56" s="23" t="n">
+      <c r="I56" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>194</v>
+      <c r="A57" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="D57" s="0"/>
-      <c r="E57" s="23" t="n">
+      <c r="E57" s="19" t="n">
         <v>18.5</v>
       </c>
       <c r="F57" s="0"/>
       <c r="G57" s="0"/>
       <c r="H57" s="0"/>
-      <c r="I57" s="23" t="n">
+      <c r="I57" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>196</v>
+      <c r="A58" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D58" s="0"/>
-      <c r="E58" s="23" t="n">
+      <c r="E58" s="19" t="n">
         <v>23.7</v>
       </c>
       <c r="F58" s="0"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="23" t="n">
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>196</v>
+      <c r="A59" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D59" s="0"/>
-      <c r="E59" s="23" t="n">
+      <c r="E59" s="19" t="n">
         <v>33.8</v>
       </c>
       <c r="F59" s="0"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="23" t="n">
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>193</v>
+      <c r="A60" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D60" s="0"/>
-      <c r="E60" s="23" t="n">
+      <c r="E60" s="19" t="n">
         <v>20</v>
       </c>
       <c r="F60" s="0"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="23" t="n">
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>193</v>
+      <c r="A61" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D61" s="0"/>
-      <c r="E61" s="23" t="n">
+      <c r="E61" s="19" t="n">
         <v>33.8</v>
       </c>
       <c r="F61" s="0"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="23" t="n">
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>185</v>
+      <c r="A62" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C62" s="0"/>
-      <c r="D62" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="23" t="n">
+      <c r="D62" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="F62" s="23" t="n">
+      <c r="F62" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="I62" s="23" t="n">
+      <c r="I62" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>185</v>
+      <c r="A63" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="C63" s="0"/>
-      <c r="D63" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="23" t="n">
+      <c r="D63" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="F63" s="23" t="n">
+      <c r="F63" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="I63" s="23" t="n">
+      <c r="I63" s="19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="I64" s="23" t="n">
+      <c r="A64" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="I64" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21470,55 +21346,61 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="23" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -21527,7 +21409,7 @@
         <v>215</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>216</v>
@@ -21541,7 +21423,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
@@ -21550,7 +21432,7 @@
         <v>215</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>216</v>
@@ -21570,7 +21452,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -21579,7 +21461,7 @@
         <v>215</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>216</v>
@@ -21593,7 +21475,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
@@ -21602,7 +21484,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>216</v>
@@ -21622,7 +21504,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -21631,7 +21513,7 @@
         <v>215</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>216</v>
@@ -21645,7 +21527,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -21654,7 +21536,7 @@
         <v>215</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>216</v>
@@ -21663,7 +21545,7 @@
         <v>217</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>225</v>
@@ -21674,7 +21556,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -21683,7 +21565,7 @@
         <v>215</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>216</v>
@@ -21695,12 +21577,12 @@
         <v>218</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -21709,7 +21591,7 @@
         <v>215</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>216</v>
@@ -21723,7 +21605,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
@@ -21732,7 +21614,7 @@
         <v>215</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>216</v>
@@ -21744,7 +21626,7 @@
         <v>226</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>221</v>
@@ -21752,7 +21634,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -21761,7 +21643,7 @@
         <v>215</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>216</v>
@@ -21775,7 +21657,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2</v>
@@ -21784,7 +21666,7 @@
         <v>215</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>216</v>
@@ -21796,7 +21678,7 @@
         <v>226</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>221</v>
@@ -21804,7 +21686,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -21813,7 +21695,7 @@
         <v>215</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>216</v>
@@ -21827,7 +21709,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>2</v>
@@ -21836,7 +21718,7 @@
         <v>215</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>216</v>
@@ -21845,10 +21727,10 @@
         <v>222</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>216</v>
@@ -21862,7 +21744,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -21871,7 +21753,7 @@
         <v>215</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>216</v>
@@ -21885,7 +21767,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -21894,7 +21776,7 @@
         <v>215</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>216</v>
@@ -21908,7 +21790,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -21917,7 +21799,7 @@
         <v>215</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>216</v>
@@ -21931,7 +21813,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -21940,7 +21822,7 @@
         <v>215</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>216</v>
@@ -21954,7 +21836,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2</v>
@@ -21963,7 +21845,7 @@
         <v>215</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>216</v>
@@ -21972,10 +21854,10 @@
         <v>222</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>216</v>
@@ -21989,7 +21871,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -21998,7 +21880,7 @@
         <v>215</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>216</v>
@@ -22012,7 +21894,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2</v>
@@ -22021,7 +21903,7 @@
         <v>215</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>216</v>
@@ -22033,7 +21915,7 @@
         <v>223</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>216</v>
@@ -22047,7 +21929,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -22056,7 +21938,7 @@
         <v>215</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>216</v>
@@ -22084,74 +21966,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>184</v>
+      <c r="I1" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="29"/>
+      <c r="G2" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="25"/>
       <c r="I2" s="0" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>226</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>80</v>
@@ -22159,28 +22047,28 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="H4" s="30"/>
+      <c r="G4" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="0" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>215</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>80</v>
@@ -22188,37 +22076,37 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>215</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="I6" s="31" t="n">
+        <v>185</v>
+      </c>
+      <c r="I6" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>226</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="I7" s="31" t="n">
+        <v>193</v>
+      </c>
+      <c r="I7" s="27" t="n">
         <v>51</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>217</v>
@@ -22227,7 +22115,7 @@
         <v>215</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>80</v>
@@ -22235,7 +22123,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>217</v>
@@ -22244,31 +22132,14 @@
         <v>215</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I10"/>
+  <autoFilter ref="A1:I9"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -22298,379 +22169,379 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>235</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>114</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>86</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>86</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>86</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>83</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>84</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>89</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>88</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>85</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>87</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>87</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>98</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>99</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>123</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>98</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>118</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>118</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>118</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -22704,32 +22575,32 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>267</v>
+      <c r="F1" s="23" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -22751,7 +22622,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22759,49 +22630,49 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>270</v>
+    <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>216</v>
@@ -22809,7 +22680,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>215</v>
@@ -22817,7 +22688,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>216</v>
@@ -22833,10 +22704,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
